--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495934.717539842</v>
+        <v>1494047.13602344</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800617</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>24.25641376481833</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.8915849827645</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>243.6619593516501</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>341.4691678678095</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>334.9170046886393</v>
+        <v>394.5289683486414</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>30.54110646053125</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>72.31682910993977</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056489</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.2541671901452</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.2017434119084</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>33.3514698018586</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>115.5269768002177</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>187.832639942108</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404419</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>6.348656829618278</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.24018360678576</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>161.8175117958947</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896884</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.7791350527408</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533799</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700704</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965537</v>
+        <v>93.41221638965496</v>
       </c>
       <c r="E31" t="n">
-        <v>35.69637841137325</v>
+        <v>91.23070601801177</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437426</v>
+        <v>42.20569823126032</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897914</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523542</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700199</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952706</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080336</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235374</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898725</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857177</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692859</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329066</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415222</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941874</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224542</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2672.647662972951</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2418.885877611043</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2418.885877611043</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2418.885877611043</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2045.420119349963</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.280787374151</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>709.5665374816297</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>709.5665374816297</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>709.5665374816297</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>709.5665374816297</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>709.5665374816297</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>709.5665374816297</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X4" t="n">
-        <v>709.5665374816297</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.5665374816297</v>
+        <v>63.25696827225937</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="C5" t="n">
-        <v>825.7212517577275</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>467.455553150977</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>467.455553150977</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1536.199889775781</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1146.060557799969</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4744,25 +4744,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1916.245359491378</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="C8" t="n">
-        <v>1547.282842550966</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="D8" t="n">
-        <v>1189.017143944216</v>
+        <v>1325.851540579792</v>
       </c>
       <c r="E8" t="n">
-        <v>803.2288913459713</v>
+        <v>940.0632879815475</v>
       </c>
       <c r="F8" t="n">
-        <v>392.2429865563637</v>
+        <v>933.1177872323441</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1916.245359491378</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79258430574956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>84.79258430574956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,43 +5027,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823853</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514143</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795212</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515101</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>148.5096761832896</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>559.3999450278018</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>806.1650729342653</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1113.485206214226</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1443.347833878258</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180916</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963125</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5154,7 +5154,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.595495625988</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>468.595495625988</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>468.595495625988</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>320.6824020435948</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947118</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>786.0822064765161</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609662</v>
+        <v>531.3977182706293</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240053</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="X13" t="n">
-        <v>468.595495625988</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.595495625988</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5267,40 +5267,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619124</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899121</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636235</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128704</v>
+        <v>1725.969903867173</v>
       </c>
       <c r="O15" t="n">
-        <v>2292.946699347402</v>
+        <v>2005.509969085869</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821616</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799357</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471183</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765161</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706292</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706292</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.055751909234</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,25 +5501,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201017</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201017</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201017</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201017</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609665</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550797</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201017</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201017</v>
+        <v>130.9054447954966</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5838,13 +5838,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028581</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765183</v>
+        <v>675.0071030383448</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383448</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028581</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028581</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.1480540508778</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>822.1480540508778</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508778</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684847</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471189</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.78763177146</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344998</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344998</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.3704617344998</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="30">
@@ -6528,31 +6528,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845919</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136706</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.0058129140978</v>
+        <v>439.5324299542235</v>
       </c>
       <c r="C31" t="n">
-        <v>525.8304952675616</v>
+        <v>326.3571123076877</v>
       </c>
       <c r="D31" t="n">
-        <v>431.4747211365965</v>
+        <v>232.001338176723</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463202</v>
+        <v>139.849109875701</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297805</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667516</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962062</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="S31" t="n">
-        <v>1936.126063056073</v>
+        <v>1736.652680096196</v>
       </c>
       <c r="T31" t="n">
-        <v>1768.10151312695</v>
+        <v>1568.628130167073</v>
       </c>
       <c r="U31" t="n">
-        <v>1534.733739621879</v>
+        <v>1335.260356662003</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.810116697363</v>
+        <v>1136.336733737487</v>
       </c>
       <c r="W31" t="n">
-        <v>1102.153811941773</v>
+        <v>902.6804289818973</v>
       </c>
       <c r="X31" t="n">
-        <v>929.9251263251261</v>
+        <v>730.4517433652511</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.8934124629668</v>
+        <v>565.4200295030921</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662885</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923177</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203139</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982964</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,16 +6877,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045201</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0333923118348</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138946</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,49 +7096,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,13 +7348,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045199</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,34 +7394,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>9.90051268449136</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298972</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>169.2863157167238</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>38.86002301949887</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>182.0340742867938</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>223.674264993448</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,16 +10194,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>29.47535963978328</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305351</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504526</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>62.91120742583897</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302164</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>297.3877236703349</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>9.900512684485989</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>73.10421891299147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338824</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>14.455488198892</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.38290994018641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>29.89407122271359</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>64.30500338172001</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338608</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.1743415069727</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.59179657515153</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>124.4198406026826</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>55.53432760663894</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316311351</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348202</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897873</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571501</v>
+        <v>55.2159888357146</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>970289.8986922482</v>
+        <v>970289.8986922484</v>
       </c>
     </row>
     <row r="12">
@@ -26314,19 +26314,19 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="F2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="G2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="F2" t="n">
-        <v>449683.418698365</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449683.4186983651</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983652</v>
@@ -26347,13 +26347,13 @@
         <v>472099.0176719627</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768951</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.149070499195659e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086711</v>
+        <v>10342.90680086678</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.60530284598</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563566</v>
+        <v>33210.29213563589</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275965</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572136</v>
+        <v>-357502.8978572135</v>
       </c>
       <c r="C6" t="n">
+        <v>232464.9813573308</v>
+      </c>
+      <c r="D6" t="n">
         <v>232464.9813573309</v>
       </c>
-      <c r="D6" t="n">
-        <v>232464.9813573308</v>
-      </c>
       <c r="E6" t="n">
-        <v>-182509.6133486866</v>
+        <v>-182607.072474658</v>
       </c>
       <c r="F6" t="n">
-        <v>342650.4231282093</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="G6" t="n">
-        <v>342650.4231282094</v>
+        <v>342552.9640022362</v>
       </c>
       <c r="H6" t="n">
-        <v>342650.4231282094</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="I6" t="n">
-        <v>342650.4231282095</v>
+        <v>342552.9640022373</v>
       </c>
       <c r="J6" t="n">
-        <v>166227.2039356166</v>
+        <v>166129.7448096446</v>
       </c>
       <c r="K6" t="n">
-        <v>293844.351978357</v>
+        <v>293825.8582404224</v>
       </c>
       <c r="L6" t="n">
-        <v>326576.5481883106</v>
+        <v>326576.5481883109</v>
       </c>
       <c r="M6" t="n">
-        <v>202118.4397553406</v>
+        <v>202118.4397553405</v>
       </c>
       <c r="N6" t="n">
-        <v>336919.4549891778</v>
+        <v>336919.4549891776</v>
       </c>
       <c r="O6" t="n">
-        <v>336919.454989178</v>
+        <v>336919.4549891779</v>
       </c>
       <c r="P6" t="n">
-        <v>292756.8496863323</v>
+        <v>292756.8496863318</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26756,19 +26756,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108368</v>
+        <v>12.92863350108326</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855748</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>192.1919065928395</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.34635367328912</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>170.6111335945613</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.74592769735757</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>163.2140863900613</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>28.26193281065952</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0489046421614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>78.86716533215571</v>
+        <v>19.25520167215359</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>104.424515331807</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.2032566285574</v>
       </c>
     </row>
     <row r="32">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
@@ -33187,16 +33187,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946991</v>
@@ -33211,7 +33211,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
         <v>0.2670576580354892</v>
@@ -33257,25 +33257,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458548</v>
@@ -33284,13 +33284,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,19 +33336,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
         <v>229.144705426375</v>
@@ -33357,22 +33357,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,43 +33573,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>51.81069163939773</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504655</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315241</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686845</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350501</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504655</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>502.4808891147359</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P15" t="n">
-        <v>245.9534379510236</v>
+        <v>525.5561835714612</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507373</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686845</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,10 +35975,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>492.4584513372602</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>534.0986420439142</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>41.91017895490663</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
         <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>362.669933037796</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541616</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412289</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491602</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004317</v>
+        <v>94.42895660043212</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109091</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>213.4866460137781</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1477786379283</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>504.4811386018595</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952061</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>216.9939276160106</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
